--- a/config_9.28/act_027_qyzl_config.xlsx
+++ b/config_9.28/act_027_qyzl_config.xlsx
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1425,10 +1425,10 @@
         <v>1000697</v>
       </c>
       <c r="F2" s="6">
+        <v>1635782399</v>
+      </c>
+      <c r="G2" s="6">
         <v>1632787200</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1635782399</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>64</v>
